--- a/docs/rapport_bugs.xlsx
+++ b/docs/rapport_bugs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testeur logiciel\qa-portfolio-automationexercise\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FE4A8A-1F01-4A17-BD3D-32369730238A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9F628C-26DE-47C8-8789-CD9D99ADC982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-684" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>Environnement</t>
   </si>
   <si>
-    <t>Evidence</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   <si>
     <t>CT-PRODUCTS-001-1-FAIL.png
 CT-PRODUCTS-001-2-FAIL.png</t>
+  </si>
+  <si>
+    <t>Preuve</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,63 +506,63 @@
         <v>12</v>
       </c>
       <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
       <c r="P1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="O2" s="2">
         <v>45995</v>
       </c>
       <c r="P2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
